--- a/Stimuli_design/List_design/Initial_list.xlsx
+++ b/Stimuli_design/List_design/Initial_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Stimuli_design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Stimuli_design\List_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B27CD5-648B-444F-8A83-71E7C9ACCA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6082FA-91F2-43A1-9A7E-25B8A1CFEED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50792,7 +50792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC221CD-54BB-4D61-B354-EC2B97CA9667}">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:X4"/>
     </sheetView>
   </sheetViews>
